--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1075.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1075.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.06479561686528</v>
+        <v>1.061796869474883</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.402254063584668</v>
+        <v>1.392703555488274</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.6450863377768721</v>
+        <v>0.6462602061213271</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9538620261287106</v>
+        <v>0.9459741862662226</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.6450863377768721</v>
+        <v>0.6462602061213271</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9538620261287106</v>
+        <v>0.9459741862662226</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.6450863377768721</v>
+        <v>0.6462602061213271</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9538620261287106</v>
+        <v>0.9459741862662226</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>1.20105618485495</v>
+        <v>1.194442708080338</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9350028900402081</v>
+        <v>0.9271714909780745</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>1.20105618485495</v>
+        <v>1.194442708080338</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9350028900402081</v>
+        <v>0.9271714909780745</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.193171016097985</v>
+        <v>1.187529307771161</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.01676399196891451</v>
+        <v>0.01819196691672246</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.053060822487039</v>
+        <v>1.049062492633177</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.7637614124927624</v>
+        <v>0.7557897032288332</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9538620261287106</v>
+        <v>0.9459741862662226</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.947331804307652</v>
+        <v>0.9394413634074522</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9408015824865933</v>
+        <v>0.9329085405486818</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>1.20105618485495</v>
+        <v>1.194442708080338</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9350028900402081</v>
+        <v>0.9271714909780745</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>1.20105618485495</v>
+        <v>1.194442708080338</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8430428944597954</v>
+        <v>0.8342777682247444</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.02235198929188601</v>
+        <v>0.02425595588896327</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.041326028108799</v>
+        <v>1.036328115791471</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.740922665518807</v>
+        <v>0.7330074295549163</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9538620261287106</v>
+        <v>0.9459741862662226</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8774690449906108</v>
+        <v>0.8689553733926085</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.8010760638525111</v>
+        <v>0.7919365605189944</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>1.20105618485495</v>
+        <v>1.194442708080338</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9350028900402081</v>
+        <v>0.9271714909780745</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>1.20105618485495</v>
+        <v>1.194442708080338</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.801076063852511</v>
+        <v>0.7919365605189937</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.02793998661485751</v>
+        <v>0.03031994486120408</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.035001626988013</v>
+        <v>1.028892744370332</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.0309516061961842</v>
+        <v>0.03386059791888962</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>1.01590118826682</v>
+        <v>1.008944365247831</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.04004705320627621</v>
+        <v>0.04335982607246126</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9828631547551586</v>
+        <v>0.9753453350857616</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.05577945011659118</v>
+        <v>0.05935936424487546</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.9408015824865933</v>
+        <v>0.9329085405486818</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.07580877024447941</v>
+        <v>0.07956736164348489</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8886761841342121</v>
+        <v>0.8806151114876137</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>1.20105618485495</v>
+        <v>1.194442708080338</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1006303885075181</v>
+        <v>0.1044689945297078</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.8292998329163026</v>
+        <v>0.8212200103834335</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1289048414684274</v>
+        <v>0.1327523760078888</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.7637614124927624</v>
+        <v>0.7557897032288332</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>24.021123697099</v>
+        <v>23.88885416160676</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1601136130986846</v>
+        <v>0.1639096651291271</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.740922665518807</v>
+        <v>0.7330074295549163</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>1.15105618485495</v>
+        <v>1.144442708080338</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>1.05</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>1.05</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1047749498057157</v>
+        <v>0.1136997932295154</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1047749498057157</v>
+        <v>0.1136997932295154</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>1.05</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>1.05</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1047749498057157</v>
+        <v>0.1136997932295152</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2095498996114313</v>
+        <v>0.2273995864590306</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.2095498996114313</v>
+        <v>0.2273995864590305</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.4190997992228627</v>
+        <v>0.4547991729180611</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>0.2258714685995021</v>
+        <v>0.2655489793264152</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>0.6449712678223648</v>
+        <v>0.7203481522444763</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>1.364317051513801</v>
+        <v>1.424884223035747</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>2.009288319336166</v>
+        <v>2.145232375280223</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>4.719719073094492</v>
+        <v>4.799861451724264</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>6.729007392430658</v>
+        <v>6.945093827004487</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>12.01759207673294</v>
+        <v>12.12479843916566</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>18.74659946916359</v>
+        <v>19.06989226617015</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>29.78594191564641</v>
+        <v>29.88195946346744</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>48.53254138481001</v>
+        <v>48.95185172963759</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>67.8586871061824</v>
+        <v>67.88011554763452</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>116.3912284909924</v>
+        <v>116.8319672772721</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>149.8021038252346</v>
+        <v>149.5549877819438</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>266.193332316227</v>
+        <v>266.3869550592159</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>78.30427533927542</v>
+        <v>78.11065259628651</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
